--- a/input/Baza danych.xlsx
+++ b/input/Baza danych.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>dupa dupa dupa</t>
+          <t>dziala hehehehe</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
